--- a/coffe-app/ServerCoffeeApp/arxiv.xlsx
+++ b/coffe-app/ServerCoffeeApp/arxiv.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Архив" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,28 +25,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>user1</t>
   </si>
   <si>
     <t>youlchikk</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +81,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -359,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -372,19 +376,19 @@
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
@@ -394,8 +398,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -403,9 +407,21 @@
       </c>
       <c r="C3" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0">
+        <v>9.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>